--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>2.h</t>
-  </si>
-  <si>
-    <t>Game play affect distraction time</t>
   </si>
   <si>
     <t>Surprise</t>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>To see if you felt the feedback was good or not</t>
+  </si>
+  <si>
+    <t>Game.affect.distraction</t>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G63" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,16 +967,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1191,16 +1191,16 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1527,16 +1527,16 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1639,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1863,16 +1863,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1919,16 +1919,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1975,16 +1975,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2199,16 +2199,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2255,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2367,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2423,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2591,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q32">
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2759,16 +2759,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2815,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2983,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3039,16 +3039,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3095,16 +3095,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3151,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3207,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3263,16 +3263,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3319,16 +3319,16 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3375,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3454,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3487,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3543,16 +3543,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3599,16 +3599,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3655,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3699,28 +3699,28 @@
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3767,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3823,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3879,16 +3879,16 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3935,16 +3935,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q57" s="1">
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4159,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4215,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4271,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4327,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4383,16 +4383,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="1">
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4439,16 +4439,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4495,16 +4495,16 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4551,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4607,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4719,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4831,16 +4831,16 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4887,16 +4887,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4943,16 +4943,16 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4999,16 +4999,16 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5055,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5111,16 +5111,16 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5167,16 +5167,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5223,16 +5223,16 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5335,16 +5335,16 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5391,16 +5391,16 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5447,16 +5447,16 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5503,16 +5503,16 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5615,16 +5615,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5671,16 +5671,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5727,16 +5727,16 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5839,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q88">
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5895,16 +5895,16 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5951,16 +5951,16 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q91">
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6063,16 +6063,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6119,16 +6119,16 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6175,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6231,16 +6231,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6287,16 +6287,16 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6343,16 +6343,16 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q97">
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6399,16 +6399,16 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6455,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6511,16 +6511,16 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6623,16 +6623,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6679,16 +6679,16 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6735,16 +6735,16 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6791,16 +6791,16 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6847,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q106" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6959,16 +6959,16 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7015,16 +7015,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q109">
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7071,16 +7071,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7127,16 +7127,16 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7183,16 +7183,16 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7239,16 +7239,16 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7295,16 +7295,16 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7351,16 +7351,16 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q115">
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7407,16 +7407,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7463,16 +7463,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7519,16 +7519,16 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7575,16 +7575,16 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7631,16 +7631,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7687,16 +7687,16 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7743,16 +7743,16 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q122">
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7799,16 +7799,16 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q124">
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7911,16 +7911,16 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$125</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="152">
   <si>
     <t>Subject</t>
   </si>
@@ -112,9 +115,6 @@
   </si>
   <si>
     <t>To see if your partners response had any affect or punishment during the distraction test</t>
-  </si>
-  <si>
-    <t>mabye</t>
   </si>
   <si>
     <t>Depending on how the essay was graded we would probably decide how long the distractionwas. So if they gave a bad review it would cause a longer distraction</t>
@@ -182,9 +182,6 @@
     </r>
   </si>
   <si>
-    <t>nno</t>
-  </si>
-  <si>
     <t>to make it a surprise or unbiased</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>to see how upset we were with each others grading</t>
   </si>
   <si>
-    <t>X-ed out</t>
-  </si>
-  <si>
     <t>Measuring aggression from video games and after "arguing" w/ someone of a different viewpoint</t>
   </si>
   <si>
@@ -260,15 +254,9 @@
     <t>To see if our writing topic had any effect</t>
   </si>
   <si>
-    <t>circle w/ slash</t>
-  </si>
-  <si>
     <t>To see if the evaluation of our essays affected how we treated our partner</t>
   </si>
   <si>
-    <t>0- N/A note</t>
-  </si>
-  <si>
     <t>So it could be random and because of any left over feelings from my essay grade</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
   </si>
   <si>
     <t>I guess, dealing with different times of distraction. But why would the exoerimenter couldn't do that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
   </si>
   <si>
     <r>
@@ -422,9 +407,6 @@
     </r>
   </si>
   <si>
-    <t>no (not very much)</t>
-  </si>
-  <si>
     <t>Because the video game may make me aggressive., so I may choose the longest time. But actually, the comments makes me feel not good very nuch</t>
   </si>
   <si>
@@ -446,12 +428,6 @@
     <t>N/a</t>
   </si>
   <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -485,9 +461,6 @@
     <t>To measure nothing</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Perhaps to see how much we would distract the other person given the way they viewed the other's essay</t>
   </si>
   <si>
@@ -522,6 +495,21 @@
   </si>
   <si>
     <t>Game.affect.distraction</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
   </si>
 </sst>
 </file>
@@ -912,10 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -1023,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1079,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1091,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4">
         <v>185</v>
       </c>
@@ -1135,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="P4" t="s">
         <v>22</v>
@@ -1191,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
@@ -1247,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1303,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1359,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P8" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -1371,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9">
         <v>190</v>
       </c>
@@ -1471,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -1527,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -1539,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12">
         <v>193</v>
       </c>
@@ -1583,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
@@ -1592,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1639,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14">
         <v>195</v>
       </c>
@@ -1704,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1751,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16">
         <v>197</v>
       </c>
@@ -1816,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17">
         <v>199</v>
       </c>
@@ -1872,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1919,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P18" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19">
         <v>200</v>
       </c>
@@ -1984,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2031,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2087,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2143,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2199,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P23" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2255,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25">
         <v>206</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2367,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="P26" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2423,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2479,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P28" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2535,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2591,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2647,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P31" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1">
       <c r="A32">
         <v>213</v>
       </c>
@@ -2712,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2759,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P33" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34">
         <v>215</v>
       </c>
@@ -2824,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2871,16 +2860,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P35" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2927,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2983,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P37" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3039,16 +3028,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3095,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P39" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3151,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P40" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41">
         <v>223</v>
       </c>
@@ -3216,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3263,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43">
         <v>225</v>
       </c>
@@ -3328,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44">
         <v>226</v>
       </c>
@@ -3384,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45">
         <v>227</v>
       </c>
@@ -3440,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3453,11 +3442,11 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>68</v>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3487,16 +3476,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3543,16 +3532,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P47" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3599,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P48" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3655,16 +3644,16 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P49" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3686,11 +3675,11 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>73</v>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3698,29 +3687,29 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>73</v>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>75</v>
+      <c r="N50" s="2">
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3767,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P51" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3823,19 +3812,19 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P52" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1">
       <c r="A53">
         <v>235</v>
       </c>
@@ -3888,10 +3877,10 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1">
       <c r="A54">
         <v>236</v>
       </c>
@@ -3944,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3991,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P55" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4047,19 +4036,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" hidden="1">
       <c r="A57" s="1">
         <v>239</v>
       </c>
@@ -4112,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4159,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P58" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4215,16 +4204,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P59" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4271,16 +4260,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P60" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4327,19 +4316,19 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P61" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1">
       <c r="A62" s="1">
         <v>244</v>
       </c>
@@ -4392,10 +4381,10 @@
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1">
       <c r="A63">
         <v>245</v>
       </c>
@@ -4448,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4495,19 +4484,19 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P64" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65">
         <v>247</v>
       </c>
@@ -4560,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4607,16 +4596,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P66" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4663,16 +4652,16 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4719,16 +4708,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P68" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4775,16 +4764,16 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P69" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4831,16 +4820,16 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P70" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4887,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P71" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4943,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P72" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4999,19 +4988,19 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1">
       <c r="A74">
         <v>256</v>
       </c>
@@ -5064,10 +5053,10 @@
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1">
       <c r="A75">
         <v>257</v>
       </c>
@@ -5120,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5167,19 +5156,19 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77">
         <v>259</v>
       </c>
@@ -5232,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5279,19 +5268,19 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P78" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79">
         <v>261</v>
       </c>
@@ -5344,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5391,16 +5380,16 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5447,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5503,16 +5492,16 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5559,16 +5548,16 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5615,16 +5604,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5671,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5727,16 +5716,16 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5783,19 +5772,19 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88">
         <v>270</v>
       </c>
@@ -5848,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5895,19 +5884,19 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" hidden="1">
       <c r="A90">
         <v>272</v>
       </c>
@@ -5960,10 +5949,10 @@
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91">
         <v>273</v>
       </c>
@@ -6016,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6063,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6119,16 +6108,16 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6175,16 +6164,16 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6231,16 +6220,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6287,19 +6276,19 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1">
       <c r="A97">
         <v>279</v>
       </c>
@@ -6352,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6399,16 +6388,16 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6455,16 +6444,16 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6511,16 +6500,16 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6567,19 +6556,19 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" hidden="1">
       <c r="A102" s="1">
         <v>285</v>
       </c>
@@ -6632,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6679,16 +6668,16 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P103" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6735,16 +6724,16 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6791,19 +6780,19 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P105" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="2">
         <v>289</v>
       </c>
@@ -6846,17 +6835,13 @@
       <c r="N106" s="2">
         <v>0</v>
       </c>
-      <c r="O106" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="O106" s="2"/>
       <c r="P106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q106" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6903,16 +6888,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6959,19 +6944,19 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109">
         <v>292</v>
       </c>
@@ -7024,7 +7009,7 @@
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7071,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P110" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7127,16 +7112,16 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P111" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7183,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P112" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7239,16 +7224,16 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P113" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7295,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P114" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1">
       <c r="A115">
         <v>298</v>
       </c>
@@ -7360,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7407,16 +7392,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7453,8 +7438,8 @@
       <c r="K117">
         <v>0</v>
       </c>
-      <c r="L117" t="s">
-        <v>144</v>
+      <c r="L117">
+        <v>1</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7463,16 +7448,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P117" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7519,16 +7504,16 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P118" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7575,16 +7560,16 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P119" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7631,16 +7616,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7687,19 +7672,19 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P121" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" hidden="1">
       <c r="A122">
         <v>305</v>
       </c>
@@ -7752,7 +7737,7 @@
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7799,19 +7784,19 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P123" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" hidden="1">
       <c r="A124">
         <v>307</v>
       </c>
@@ -7864,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7911,19 +7896,27 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="P125" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R125">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="no"/>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$125</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="242">
   <si>
     <t>Subject</t>
   </si>
@@ -63,6 +60,9 @@
     <t>2.h</t>
   </si>
   <si>
+    <t>Game play affect distraction time</t>
+  </si>
+  <si>
     <t>Surprise</t>
   </si>
   <si>
@@ -117,6 +117,9 @@
     <t>To see if your partners response had any affect or punishment during the distraction test</t>
   </si>
   <si>
+    <t>mabye</t>
+  </si>
+  <si>
     <t>Depending on how the essay was graded we would probably decide how long the distractionwas. So if they gave a bad review it would cause a longer distraction</t>
   </si>
   <si>
@@ -148,6 +151,15 @@
   </si>
   <si>
     <t>Maybe just ask.</t>
+  </si>
+  <si>
+    <t>Note: Condition 3</t>
+  </si>
+  <si>
+    <t>Note: Condition 2</t>
+  </si>
+  <si>
+    <t>Note: Condtition 2</t>
   </si>
   <si>
     <t>To see how much  we would hate each other?</t>
@@ -182,6 +194,9 @@
     </r>
   </si>
   <si>
+    <t>nno</t>
+  </si>
+  <si>
     <t>to make it a surprise or unbiased</t>
   </si>
   <si>
@@ -197,6 +212,9 @@
     <t>I think it was based of how we felt about our partners eveluation</t>
   </si>
   <si>
+    <t xml:space="preserve">Note: Condition 2 </t>
+  </si>
+  <si>
     <t>So you could see how their evaluation of our essay affecteed us</t>
   </si>
   <si>
@@ -215,12 +233,18 @@
     <t>Most likely if we were angered at the other participanta judging of our essays, we would give a stringer distraction</t>
   </si>
   <si>
+    <t>Note :Condition 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">To see if the other persons response made us mad if it did we would assign them a large distraction. </t>
   </si>
   <si>
     <t>to test aggression/anger from the evaluated essay</t>
   </si>
   <si>
+    <t>Note: condition 4</t>
+  </si>
+  <si>
     <t>to get back at the other person if they evaluated your essay on the other topic</t>
   </si>
   <si>
@@ -242,6 +266,9 @@
     <t>to see how upset we were with each others grading</t>
   </si>
   <si>
+    <t>X-ed out</t>
+  </si>
+  <si>
     <t>Measuring aggression from video games and after "arguing" w/ someone of a different viewpoint</t>
   </si>
   <si>
@@ -254,9 +281,15 @@
     <t>To see if our writing topic had any effect</t>
   </si>
   <si>
+    <t>circle w/ slash</t>
+  </si>
+  <si>
     <t>To see if the evaluation of our essays affected how we treated our partner</t>
   </si>
   <si>
+    <t>0- N/A note</t>
+  </si>
+  <si>
     <t>So it could be random and because of any left over feelings from my essay grade</t>
   </si>
   <si>
@@ -278,6 +311,9 @@
     <t xml:space="preserve">Agression towards other participants critisism. </t>
   </si>
   <si>
+    <t xml:space="preserve">Note: Condition 3 </t>
+  </si>
+  <si>
     <t>To see if the score our partner gave us would make us angry and give them a longer distraction time</t>
   </si>
   <si>
@@ -293,6 +329,9 @@
     <t xml:space="preserve">to see how we would punish someone with differing views on a controversial topic </t>
   </si>
   <si>
+    <t>note: square next to number</t>
+  </si>
+  <si>
     <t>To see how we would respond to our essay evaluations</t>
   </si>
   <si>
@@ -308,6 +347,9 @@
     <t>To see if how we punished are partners based off their evaluation</t>
   </si>
   <si>
+    <t xml:space="preserve">note: condition 1 </t>
+  </si>
+  <si>
     <t>To eliminate fear or any sort of bias that may exist</t>
   </si>
   <si>
@@ -353,9 +395,15 @@
     <t xml:space="preserve">TO SEE HOW AGGRESSIVE WE FELT AFTER PLAYING AN AGGRESSIVE VIDEO GAME </t>
   </si>
   <si>
+    <t>note: condition 2</t>
+  </si>
+  <si>
     <t>To see how mad I was at the way he judged my paper.</t>
   </si>
   <si>
+    <t>note: condition 3</t>
+  </si>
+  <si>
     <t>To have a more random variable</t>
   </si>
   <si>
@@ -390,6 +438,9 @@
   </si>
   <si>
     <t>I guess, dealing with different times of distraction. But why would the exoerimenter couldn't do that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
   </si>
   <si>
     <r>
@@ -407,9 +458,15 @@
     </r>
   </si>
   <si>
+    <t>no (not very much)</t>
+  </si>
+  <si>
     <t>Because the video game may make me aggressive., so I may choose the longest time. But actually, the comments makes me feel not good very nuch</t>
   </si>
   <si>
+    <t>Note: condition 2</t>
+  </si>
+  <si>
     <t>To show how agrivated we get against the other person for their response on my essay.</t>
   </si>
   <si>
@@ -419,6 +476,9 @@
     <t>To see if we were against our partner after seeing their response to the essay</t>
   </si>
   <si>
+    <t>note: condition 1</t>
+  </si>
+  <si>
     <t>Since they showed us our partners response that was negitive, it would see if we wanted to be more agressice to the other person.</t>
   </si>
   <si>
@@ -428,6 +488,12 @@
     <t>N/a</t>
   </si>
   <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -461,6 +527,9 @@
     <t>To measure nothing</t>
   </si>
   <si>
+    <t>`</t>
+  </si>
+  <si>
     <t>Perhaps to see how much we would distract the other person given the way they viewed the other's essay</t>
   </si>
   <si>
@@ -494,29 +563,227 @@
     <t>To see if you felt the feedback was good or not</t>
   </si>
   <si>
-    <t>Game.affect.distraction</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>After playing the video game, I may  have been more aggressive. Then reading the critique that went against mine might have made that worse, showing in the amount of distraction I gave.</t>
+  </si>
+  <si>
+    <t>To find how offended I was by my partner's response and if I wanted revenge</t>
+  </si>
+  <si>
+    <t>To avoid researcher bias, or to test our reactions (in terms of aggrewssion) to our partner's evaluations</t>
+  </si>
+  <si>
+    <t>To show if we felt one way or another about our partner's essay or evaluation</t>
+  </si>
+  <si>
+    <t>To see if we react aggressivcely to a poor evaluation</t>
+  </si>
+  <si>
+    <t>I don’t know</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes </t>
+    <t>To see if reading the essay had anything to do with it</t>
+  </si>
+  <si>
+    <t>As a sort of measure to relate violence to what would be aggitation of the partner's "review"</t>
+  </si>
+  <si>
+    <t>To measure our level of "aggrewssion" towards one another</t>
+  </si>
+  <si>
+    <t>To see if we would take out our anger or annoyance of their review on our essay on them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that it is based on our feelings towards them </t>
+  </si>
+  <si>
+    <t>It seemed like a punishment to the person who evaluated my paper. Mean/harsh Judging= longer distraction (punishment)</t>
+  </si>
+  <si>
+    <t>To see if we were angry with the way our essay got graded</t>
+  </si>
+  <si>
+    <t>To punish my partner for giving me a bad review on my brief essay</t>
+  </si>
+  <si>
+    <t>In order to evaluate how the video game and reading the feedback on the essay affect our personal judgement in assigning the distraction</t>
+  </si>
+  <si>
+    <t>So that we could determine how long the other felt uncomfortable according to how they rated our essay</t>
+  </si>
+  <si>
+    <t>To see if there was a correlation between amount of distraction and anger</t>
+  </si>
+  <si>
+    <t>To get a reaction b/c of the negative feedback from the essay</t>
+  </si>
+  <si>
+    <t>In order to determine how er feel when we're told something about our opinion</t>
+  </si>
+  <si>
+    <t>To see if we wanted to like almost get in their heads</t>
+  </si>
+  <si>
+    <t>He talked about a contriversial topic (abortion) and disagreed. The time for distraction is a form of getting back at each other</t>
+  </si>
+  <si>
+    <t>To evaluate how "mad" we might be at the person's negitive response</t>
+  </si>
+  <si>
+    <t>base on the grade we were given bad or good was suppost ro influnce pour choice on the other person's distraction duration</t>
+  </si>
+  <si>
+    <t>Because of each ithers aggression from judging anothers essay</t>
+  </si>
+  <si>
+    <t>Not sure, to compare what you thpught his distraction would be based in his essay</t>
+  </si>
+  <si>
+    <t>So we could measure level of aggression</t>
+  </si>
+  <si>
+    <t>to see my reaction to their judgement of my paper</t>
+  </si>
+  <si>
+    <t>You wanted to see if we wanted to punish or reward for our essay evaluation</t>
+  </si>
+  <si>
+    <t>to determine our aggression</t>
+  </si>
+  <si>
+    <t>To see if we would do the max after getting back bad reviews</t>
+  </si>
+  <si>
+    <t>To see whether video games and the negative essay reviews affected our aggression</t>
+  </si>
+  <si>
+    <t>To eliminate buas and to see if the person's evaluation caused us to be more aggressive in our amount of distraction</t>
+  </si>
+  <si>
+    <t>To see how kind or mean we were based on their feedback</t>
+  </si>
+  <si>
+    <t>To see how our essay evaluations would effect the way assign the amount of distraction to the other person</t>
+  </si>
+  <si>
+    <t>To see if I would give the, ,ore distraction time because of the answer given</t>
+  </si>
+  <si>
+    <t>After reading each other's essays, seeing if it influenced our decision</t>
+  </si>
+  <si>
+    <t>To find relation between the essay review and the assigned time of distraction</t>
+  </si>
+  <si>
+    <t>To see if the way the evaluated my essay affected how long of a distraction time I would choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if the game made you more aggressive to put a higher time </t>
+  </si>
+  <si>
+    <t>To see how we react to our partner's essay notes</t>
+  </si>
+  <si>
+    <t>To see how criticisms affect your mood towards a person</t>
+  </si>
+  <si>
+    <t>No idea</t>
+  </si>
+  <si>
+    <t>to make it difficult for your partner so you can be better tham him</t>
+  </si>
+  <si>
+    <t>To evaluate each other as we want</t>
+  </si>
+  <si>
+    <t>To see if I would get revenge for him saying my essay was bad</t>
+  </si>
+  <si>
+    <t>To see how eachother's grading influenced our harshness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see how we would react to the partners evaluation. To see if we were irritated </t>
+  </si>
+  <si>
+    <t>To see how we reacted to the evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if the judgement of the essay was cause for aggression. If the judgement was more harsh people are going to assign a higher distraction time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see whether the video game violence and your partner's evaluation of your essay had a correlation with the amount of time you assigned to the other participant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if their response to our essay dictated how much distraction we gave them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank </t>
+  </si>
+  <si>
+    <t>To see if each student would react differently to their essay results</t>
+  </si>
+  <si>
+    <t>to grade anger reaction</t>
+  </si>
+  <si>
+    <t>So it can be bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if after I got my "revenge" back if I would assign him the maximum amount of time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see how their opinion changed my choice and the game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if their response angered us </t>
+  </si>
+  <si>
+    <t>To see how the agression from the review would effect our decision making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so you couldn't pick the least distraction </t>
+  </si>
+  <si>
+    <t>To determine the aggression towards the essay judge</t>
+  </si>
+  <si>
+    <t>To see how much we were willing to punish each other after reading the responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we agreed their response we would give them a short amount of tume and if we didn’t then they'd get a longer amount of time </t>
+  </si>
+  <si>
+    <t>To see if the partner's assignment of the essay fueled any intention for the distraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To measure aggression towards someone who insulted me </t>
+  </si>
+  <si>
+    <t>To see how we react to their grading of our essay-- aggressive tendencies</t>
+  </si>
+  <si>
+    <t>Something to do with aggression related to the insults in the traded essays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see how pissed off we were at each other and if violent video games had anything to do with it </t>
+  </si>
+  <si>
+    <t>To see if you were angered by your partner's evaluation of your essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if we assigned sterotypes based on our essay type </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +957,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -724,6 +992,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,20 +1168,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="O131" sqref="O131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,19 +1224,19 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>183</v>
       </c>
@@ -1012,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>184</v>
       </c>
@@ -1068,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>185</v>
       </c>
@@ -1124,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>168</v>
       </c>
@@ -1180,19 +1448,32 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187</v>
       </c>
@@ -1236,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>189</v>
       </c>
@@ -1292,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>188</v>
       </c>
@@ -1348,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190</v>
       </c>
@@ -1404,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>191</v>
       </c>
@@ -1460,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>192</v>
       </c>
@@ -1516,19 +1797,19 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>193</v>
       </c>
@@ -1572,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>194</v>
       </c>
@@ -1628,19 +1909,32 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1">
+        <v>35</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>195</v>
       </c>
@@ -1684,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>196</v>
       </c>
@@ -1740,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>197</v>
       </c>
@@ -1796,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>199</v>
       </c>
@@ -1852,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198</v>
       </c>
@@ -1908,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
@@ -1964,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201</v>
       </c>
@@ -2020,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202</v>
       </c>
@@ -2076,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -2132,19 +2426,32 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
@@ -2188,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>205</v>
       </c>
@@ -2244,19 +2551,19 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206</v>
       </c>
@@ -2300,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>207</v>
       </c>
@@ -2356,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>208</v>
       </c>
@@ -2412,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>209</v>
       </c>
@@ -2468,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>210</v>
       </c>
@@ -2524,19 +2831,32 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>55</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211</v>
       </c>
@@ -2580,19 +2900,19 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>212</v>
       </c>
@@ -2636,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>213</v>
       </c>
@@ -2692,19 +3012,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q32">
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>214</v>
       </c>
@@ -2748,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215</v>
       </c>
@@ -2804,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>217</v>
       </c>
@@ -2860,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>218</v>
       </c>
@@ -2916,19 +3236,33 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>63</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>219</v>
       </c>
@@ -2972,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>220</v>
       </c>
@@ -3028,19 +3362,33 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>221</v>
       </c>
@@ -3084,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
@@ -3140,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>223</v>
       </c>
@@ -3196,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>224</v>
       </c>
@@ -3252,19 +3600,19 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" hidden="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>225</v>
       </c>
@@ -3308,19 +3656,19 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>226</v>
       </c>
@@ -3364,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" hidden="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>227</v>
       </c>
@@ -3420,19 +3768,19 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>228</v>
       </c>
@@ -3442,11 +3790,11 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3476,19 +3824,30 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>76</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>229</v>
       </c>
@@ -3532,19 +3891,19 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>230</v>
       </c>
@@ -3588,19 +3947,19 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>231</v>
       </c>
@@ -3644,19 +4003,19 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>232</v>
       </c>
@@ -3675,11 +4034,11 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
+      <c r="G50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3687,32 +4046,43 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0</v>
+      <c r="K50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
-      <c r="N50" s="2">
-        <v>0</v>
+      <c r="N50" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>81</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>233</v>
       </c>
@@ -3756,19 +4126,19 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>234</v>
       </c>
@@ -3812,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>235</v>
       </c>
@@ -3868,19 +4238,19 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>236</v>
       </c>
@@ -3924,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>237</v>
       </c>
@@ -3980,19 +4350,19 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>238</v>
       </c>
@@ -4036,19 +4406,34 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" hidden="1">
+        <v>88</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>239</v>
       </c>
@@ -4092,19 +4477,33 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="1">
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>89</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -4148,19 +4547,19 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>241</v>
       </c>
@@ -4204,19 +4603,19 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>242</v>
       </c>
@@ -4260,19 +4659,19 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P60" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>243</v>
       </c>
@@ -4316,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" hidden="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>244</v>
       </c>
@@ -4372,19 +4771,34 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q62" s="1">
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" hidden="1">
+        <v>95</v>
+      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>245</v>
       </c>
@@ -4428,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>246</v>
       </c>
@@ -4484,19 +4898,19 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P64" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" hidden="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>247</v>
       </c>
@@ -4540,19 +4954,19 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>248</v>
       </c>
@@ -4596,19 +5010,19 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>249</v>
       </c>
@@ -4652,19 +5066,34 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>101</v>
+      </c>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>250</v>
       </c>
@@ -4708,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>251</v>
       </c>
@@ -4764,19 +5193,19 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>252</v>
       </c>
@@ -4820,19 +5249,19 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>253</v>
       </c>
@@ -4876,19 +5305,19 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P71" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>254</v>
       </c>
@@ -4932,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>255</v>
       </c>
@@ -4988,19 +5417,19 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P73" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>256</v>
       </c>
@@ -5044,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" hidden="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>257</v>
       </c>
@@ -5100,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>258</v>
       </c>
@@ -5156,19 +5585,19 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P76" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" hidden="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>259</v>
       </c>
@@ -5212,19 +5641,19 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>260</v>
       </c>
@@ -5268,19 +5697,19 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P78" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>261</v>
       </c>
@@ -5324,19 +5753,19 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>262</v>
       </c>
@@ -5380,19 +5809,19 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P80" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>263</v>
       </c>
@@ -5436,19 +5865,19 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P81" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>264</v>
       </c>
@@ -5492,19 +5921,19 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P82" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>265</v>
       </c>
@@ -5548,19 +5977,19 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P83" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>266</v>
       </c>
@@ -5604,19 +6033,32 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>117</v>
+      </c>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>267</v>
       </c>
@@ -5660,19 +6102,32 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>119</v>
+      </c>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>268</v>
       </c>
@@ -5716,19 +6171,19 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P86" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>269</v>
       </c>
@@ -5772,19 +6227,19 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P87" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" hidden="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>270</v>
       </c>
@@ -5828,19 +6283,19 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q88">
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>271</v>
       </c>
@@ -5884,19 +6339,19 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P89" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" hidden="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>272</v>
       </c>
@@ -5940,19 +6395,19 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" hidden="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>273</v>
       </c>
@@ -5996,19 +6451,19 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q91">
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>274</v>
       </c>
@@ -6052,19 +6507,19 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P92" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>275</v>
       </c>
@@ -6108,19 +6563,19 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P93" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>276</v>
       </c>
@@ -6164,19 +6619,19 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P94" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>277</v>
       </c>
@@ -6220,19 +6675,19 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P95" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>278</v>
       </c>
@@ -6276,19 +6731,19 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P96" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" hidden="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>279</v>
       </c>
@@ -6332,19 +6787,19 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q97">
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>281</v>
       </c>
@@ -6388,19 +6843,19 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P98" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>282</v>
       </c>
@@ -6444,19 +6899,38 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+        <v>136</v>
+      </c>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>283</v>
       </c>
@@ -6500,19 +6974,19 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P100" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>284</v>
       </c>
@@ -6556,19 +7030,19 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P101" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" hidden="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>285</v>
       </c>
@@ -6612,19 +7086,38 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+        <v>140</v>
+      </c>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>286</v>
       </c>
@@ -6668,19 +7161,19 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P103" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>287</v>
       </c>
@@ -6724,19 +7217,19 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P104" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>288</v>
       </c>
@@ -6780,19 +7273,19 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P105" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" hidden="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>289</v>
       </c>
@@ -6835,16 +7328,26 @@
       <c r="N106" s="2">
         <v>0</v>
       </c>
-      <c r="O106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="P106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q106" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="R106" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+        <v>147</v>
+      </c>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>290</v>
       </c>
@@ -6888,19 +7391,19 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P107" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291</v>
       </c>
@@ -6944,19 +7447,19 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P108" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>292</v>
       </c>
@@ -7000,19 +7503,19 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q109">
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>293</v>
       </c>
@@ -7056,19 +7559,19 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P110" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>294</v>
       </c>
@@ -7112,19 +7615,19 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P111" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>295</v>
       </c>
@@ -7168,19 +7671,19 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P112" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>296</v>
       </c>
@@ -7224,19 +7727,19 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P113" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>297</v>
       </c>
@@ -7280,19 +7783,19 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P114" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" hidden="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>298</v>
       </c>
@@ -7336,19 +7839,19 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q115">
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>299</v>
       </c>
@@ -7392,19 +7895,19 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P116" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>300</v>
       </c>
@@ -7438,8 +7941,8 @@
       <c r="K117">
         <v>0</v>
       </c>
-      <c r="L117">
-        <v>1</v>
+      <c r="L117" t="s">
+        <v>158</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7448,19 +7951,19 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P117" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>301</v>
       </c>
@@ -7504,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P118" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>302</v>
       </c>
@@ -7560,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P119" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>303</v>
       </c>
@@ -7616,19 +8119,19 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P120" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>304</v>
       </c>
@@ -7672,19 +8175,19 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P121" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" hidden="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>305</v>
       </c>
@@ -7728,19 +8231,19 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q122">
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>306</v>
       </c>
@@ -7784,19 +8287,19 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P123" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>307</v>
       </c>
@@ -7840,19 +8343,19 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q124">
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>308</v>
       </c>
@@ -7896,51 +8399,4135 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="P125" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>143</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>309</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>19</v>
+      </c>
+      <c r="P126" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>310</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>18</v>
+      </c>
+      <c r="P127" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>311</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>19</v>
+      </c>
+      <c r="P128" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>312</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>19</v>
+      </c>
+      <c r="P129" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>313</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>19</v>
+      </c>
+      <c r="P130" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>314</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>170</v>
+      </c>
+      <c r="P131" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>316</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>21</v>
+      </c>
+      <c r="P132" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>317</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q133">
+        <v>5</v>
+      </c>
+      <c r="R133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>318</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>19</v>
+      </c>
+      <c r="P134" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>319</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>170</v>
+      </c>
+      <c r="P135" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>320</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>19</v>
+      </c>
+      <c r="P136" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>321</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>19</v>
+      </c>
+      <c r="P137" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>322</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
+      <c r="M138" s="2">
+        <v>0</v>
+      </c>
+      <c r="N138" s="2">
+        <v>0</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>323</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>170</v>
+      </c>
+      <c r="P139" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>324</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>19</v>
+      </c>
+      <c r="P140" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>326</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>19</v>
+      </c>
+      <c r="P141" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>328</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>19</v>
+      </c>
+      <c r="P142" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>329</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>19</v>
+      </c>
+      <c r="P143" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>330</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>19</v>
+      </c>
+      <c r="P144" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q144">
+        <v>3</v>
+      </c>
+      <c r="R144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>331</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>19</v>
+      </c>
+      <c r="P145" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>332</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>21</v>
+      </c>
+      <c r="P146" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>333</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>334</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>19</v>
+      </c>
+      <c r="P148" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>335</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>21</v>
+      </c>
+      <c r="P149" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>336</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>19</v>
+      </c>
+      <c r="P150" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>337</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>19</v>
+      </c>
+      <c r="P151" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+      <c r="R151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>338</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>18</v>
+      </c>
+      <c r="P152" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>339</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>19</v>
+      </c>
+      <c r="P153" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>340</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>19</v>
+      </c>
+      <c r="P154" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>341</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>19</v>
+      </c>
+      <c r="P155" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+      <c r="R155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>342</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156" t="s">
+        <v>19</v>
+      </c>
+      <c r="P156" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q156">
+        <v>3</v>
+      </c>
+      <c r="R156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>343</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>19</v>
+      </c>
+      <c r="P157" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>344</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>19</v>
+      </c>
+      <c r="P158" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>345</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="2"/>
+      <c r="X159" s="2"/>
+      <c r="Y159" s="2"/>
+      <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="2"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>346</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>19</v>
+      </c>
+      <c r="P160" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>347</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>19</v>
+      </c>
+      <c r="P161" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q161">
+        <v>3</v>
+      </c>
+      <c r="R161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>348</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>21</v>
+      </c>
+      <c r="P162" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>349</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>19</v>
+      </c>
+      <c r="P163" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>350</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>19</v>
+      </c>
+      <c r="P164" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>351</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>18</v>
+      </c>
+      <c r="P165" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>352</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>19</v>
+      </c>
+      <c r="P166" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>353</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>19</v>
+      </c>
+      <c r="P167" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>354</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>355</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P169" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q169">
+        <v>2</v>
+      </c>
+      <c r="R169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>356</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>19</v>
+      </c>
+      <c r="P170" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>357</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>19</v>
+      </c>
+      <c r="P171" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q171">
+        <v>4</v>
+      </c>
+      <c r="R171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>358</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>359</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>19</v>
+      </c>
+      <c r="P173" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>360</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>21</v>
+      </c>
+      <c r="P174" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>361</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>19</v>
+      </c>
+      <c r="P175" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q175">
+        <v>2</v>
+      </c>
+      <c r="R175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>362</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>21</v>
+      </c>
+      <c r="P176" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>363</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>19</v>
+      </c>
+      <c r="P177" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q177">
+        <v>5</v>
+      </c>
+      <c r="R177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>364</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q178">
+        <v>5</v>
+      </c>
+      <c r="R178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>365</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0</v>
+      </c>
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2">
+        <v>1</v>
+      </c>
+      <c r="K179" s="2">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2">
+        <v>1</v>
+      </c>
+      <c r="M179" s="2">
+        <v>1</v>
+      </c>
+      <c r="N179" s="2">
+        <v>0</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2"/>
+      <c r="V179" s="2"/>
+      <c r="W179" s="2"/>
+      <c r="X179" s="2"/>
+      <c r="Y179" s="2"/>
+      <c r="Z179" s="2"/>
+      <c r="AA179" s="2"/>
+      <c r="AB179" s="2"/>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>365</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2">
+        <v>1</v>
+      </c>
+      <c r="M180" s="2">
+        <v>1</v>
+      </c>
+      <c r="N180" s="2">
+        <v>0</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>3</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="2"/>
+      <c r="X180" s="2"/>
+      <c r="Y180" s="2"/>
+      <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
+      <c r="AB180" s="2"/>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>366</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>21</v>
+      </c>
+      <c r="P181" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q181">
+        <v>2</v>
+      </c>
+      <c r="R181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>367</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="F182" s="2">
+        <v>0</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0</v>
+      </c>
+      <c r="K182" s="2">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2">
+        <v>0</v>
+      </c>
+      <c r="M182" s="2">
+        <v>0</v>
+      </c>
+      <c r="N182" s="2">
+        <v>0</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>2</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="2"/>
+      <c r="X182" s="2"/>
+      <c r="Y182" s="2"/>
+      <c r="Z182" s="2"/>
+      <c r="AA182" s="2"/>
+      <c r="AB182" s="2"/>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>367</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2">
+        <v>1</v>
+      </c>
+      <c r="M183" s="2">
+        <v>0</v>
+      </c>
+      <c r="N183" s="2">
+        <v>0</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>5</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="2"/>
+      <c r="X183" s="2"/>
+      <c r="Y183" s="2"/>
+      <c r="Z183" s="2"/>
+      <c r="AA183" s="2"/>
+      <c r="AB183" s="2"/>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>368</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>19</v>
+      </c>
+      <c r="P184" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="R184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>369</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185" t="s">
+        <v>21</v>
+      </c>
+      <c r="P185" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q185">
+        <v>2</v>
+      </c>
+      <c r="R185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>370</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>18</v>
+      </c>
+      <c r="P186" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>371</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>19</v>
+      </c>
+      <c r="P187" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>372</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>19</v>
+      </c>
+      <c r="P188" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q188">
+        <v>4</v>
+      </c>
+      <c r="R188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>373</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>19</v>
+      </c>
+      <c r="P189" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q189">
+        <v>4</v>
+      </c>
+      <c r="R189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>374</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>19</v>
+      </c>
+      <c r="P190" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>375</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191" t="s">
+        <v>19</v>
+      </c>
+      <c r="P191" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>376</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192" t="s">
+        <v>19</v>
+      </c>
+      <c r="P192" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q192">
+        <v>2</v>
+      </c>
+      <c r="R192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>377</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>19</v>
+      </c>
+      <c r="P193" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q193">
+        <v>5</v>
+      </c>
+      <c r="R193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>378</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>145</v>
+      </c>
+      <c r="P194" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q194">
+        <v>5</v>
+      </c>
+      <c r="R194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>379</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>19</v>
+      </c>
+      <c r="P195" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q195">
+        <v>4</v>
+      </c>
+      <c r="R195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>380</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>19</v>
+      </c>
+      <c r="P196" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>381</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197" t="s">
+        <v>19</v>
+      </c>
+      <c r="P197" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q197">
+        <v>2</v>
+      </c>
+      <c r="R197" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R125">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="no"/>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <t>Subject</t>
   </si>
@@ -151,15 +151,6 @@
   </si>
   <si>
     <t>Maybe just ask.</t>
-  </si>
-  <si>
-    <t>Note: Condition 3</t>
-  </si>
-  <si>
-    <t>Note: Condition 2</t>
-  </si>
-  <si>
-    <t>Note: Condtition 2</t>
   </si>
   <si>
     <t>To see how much  we would hate each other?</t>
@@ -212,9 +203,6 @@
     <t>I think it was based of how we felt about our partners eveluation</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: Condition 2 </t>
-  </si>
-  <si>
     <t>So you could see how their evaluation of our essay affecteed us</t>
   </si>
   <si>
@@ -233,18 +221,12 @@
     <t>Most likely if we were angered at the other participanta judging of our essays, we would give a stringer distraction</t>
   </si>
   <si>
-    <t>Note :Condition 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">To see if the other persons response made us mad if it did we would assign them a large distraction. </t>
   </si>
   <si>
     <t>to test aggression/anger from the evaluated essay</t>
   </si>
   <si>
-    <t>Note: condition 4</t>
-  </si>
-  <si>
     <t>to get back at the other person if they evaluated your essay on the other topic</t>
   </si>
   <si>
@@ -311,9 +293,6 @@
     <t xml:space="preserve">Agression towards other participants critisism. </t>
   </si>
   <si>
-    <t xml:space="preserve">Note: Condition 3 </t>
-  </si>
-  <si>
     <t>To see if the score our partner gave us would make us angry and give them a longer distraction time</t>
   </si>
   <si>
@@ -329,9 +308,6 @@
     <t xml:space="preserve">to see how we would punish someone with differing views on a controversial topic </t>
   </si>
   <si>
-    <t>note: square next to number</t>
-  </si>
-  <si>
     <t>To see how we would respond to our essay evaluations</t>
   </si>
   <si>
@@ -347,9 +323,6 @@
     <t>To see if how we punished are partners based off their evaluation</t>
   </si>
   <si>
-    <t xml:space="preserve">note: condition 1 </t>
-  </si>
-  <si>
     <t>To eliminate fear or any sort of bias that may exist</t>
   </si>
   <si>
@@ -395,13 +368,7 @@
     <t xml:space="preserve">TO SEE HOW AGGRESSIVE WE FELT AFTER PLAYING AN AGGRESSIVE VIDEO GAME </t>
   </si>
   <si>
-    <t>note: condition 2</t>
-  </si>
-  <si>
     <t>To see how mad I was at the way he judged my paper.</t>
-  </si>
-  <si>
-    <t>note: condition 3</t>
   </si>
   <si>
     <t>To have a more random variable</t>
@@ -464,9 +431,6 @@
     <t>Because the video game may make me aggressive., so I may choose the longest time. But actually, the comments makes me feel not good very nuch</t>
   </si>
   <si>
-    <t>Note: condition 2</t>
-  </si>
-  <si>
     <t>To show how agrivated we get against the other person for their response on my essay.</t>
   </si>
   <si>
@@ -474,9 +438,6 @@
   </si>
   <si>
     <t>To see if we were against our partner after seeing their response to the essay</t>
-  </si>
-  <si>
-    <t>note: condition 1</t>
   </si>
   <si>
     <t>Since they showed us our partners response that was negitive, it would see if we wanted to be more agressice to the other person.</t>
@@ -878,6 +839,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -925,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1169,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI197"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O131" sqref="O131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1144,7 @@
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>183</v>
       </c>
@@ -1292,7 +1256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>184</v>
       </c>
@@ -1348,7 +1312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>185</v>
       </c>
@@ -1404,7 +1368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>168</v>
       </c>
@@ -1459,21 +1423,8 @@
       <c r="R5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187</v>
       </c>
@@ -1529,7 +1480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>189</v>
       </c>
@@ -1585,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>188</v>
       </c>
@@ -1641,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190</v>
       </c>
@@ -1697,7 +1648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>191</v>
       </c>
@@ -1753,7 +1704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>192</v>
       </c>
@@ -1809,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>193</v>
       </c>
@@ -1865,7 +1816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>194</v>
       </c>
@@ -1920,21 +1871,8 @@
       <c r="R13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>195</v>
       </c>
@@ -1990,7 +1928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>196</v>
       </c>
@@ -2046,7 +1984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>197</v>
       </c>
@@ -2102,7 +2040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>199</v>
       </c>
@@ -2158,7 +2096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198</v>
       </c>
@@ -2214,7 +2152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
@@ -2270,7 +2208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201</v>
       </c>
@@ -2326,7 +2264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202</v>
       </c>
@@ -2382,7 +2320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -2437,21 +2375,8 @@
       <c r="R22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
@@ -2504,10 +2429,10 @@
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>205</v>
       </c>
@@ -2560,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206</v>
       </c>
@@ -2616,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>207</v>
       </c>
@@ -2663,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s">
         <v>19</v>
@@ -2672,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>208</v>
       </c>
@@ -2728,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>209</v>
       </c>
@@ -2784,10 +2709,10 @@
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>210</v>
       </c>
@@ -2840,23 +2765,10 @@
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211</v>
       </c>
@@ -2909,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>212</v>
       </c>
@@ -2965,10 +2877,10 @@
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>213</v>
       </c>
@@ -3021,10 +2933,10 @@
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>214</v>
       </c>
@@ -3077,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215</v>
       </c>
@@ -3133,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>217</v>
       </c>
@@ -3189,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>218</v>
       </c>
@@ -3245,24 +3157,10 @@
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>219</v>
       </c>
@@ -3315,10 +3213,10 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>220</v>
       </c>
@@ -3371,24 +3269,10 @@
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>221</v>
       </c>
@@ -3441,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
@@ -3497,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>223</v>
       </c>
@@ -3553,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>224</v>
       </c>
@@ -3609,10 +3493,10 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>225</v>
       </c>
@@ -3665,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>226</v>
       </c>
@@ -3721,10 +3605,10 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>227</v>
       </c>
@@ -3777,10 +3661,10 @@
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>228</v>
       </c>
@@ -3791,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3833,21 +3717,10 @@
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>229</v>
       </c>
@@ -3900,10 +3773,10 @@
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>230</v>
       </c>
@@ -3956,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>231</v>
       </c>
@@ -4012,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>232</v>
       </c>
@@ -4035,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -4047,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>19</v>
@@ -4068,21 +3941,10 @@
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>233</v>
       </c>
@@ -4135,10 +3997,10 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>234</v>
       </c>
@@ -4191,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>235</v>
       </c>
@@ -4247,10 +4109,10 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>236</v>
       </c>
@@ -4303,10 +4165,10 @@
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>237</v>
       </c>
@@ -4359,10 +4221,10 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>238</v>
       </c>
@@ -4415,25 +4277,10 @@
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>239</v>
       </c>
@@ -4486,24 +4333,10 @@
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -4556,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>241</v>
       </c>
@@ -4612,10 +4445,10 @@
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>242</v>
       </c>
@@ -4668,10 +4501,10 @@
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>243</v>
       </c>
@@ -4724,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>244</v>
       </c>
@@ -4780,25 +4613,10 @@
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>245</v>
       </c>
@@ -4851,10 +4669,10 @@
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>246</v>
       </c>
@@ -4907,10 +4725,10 @@
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>247</v>
       </c>
@@ -4963,10 +4781,10 @@
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>248</v>
       </c>
@@ -5019,10 +4837,10 @@
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>249</v>
       </c>
@@ -5075,25 +4893,10 @@
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>250</v>
       </c>
@@ -5146,10 +4949,10 @@
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>251</v>
       </c>
@@ -5202,10 +5005,10 @@
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>252</v>
       </c>
@@ -5258,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>253</v>
       </c>
@@ -5314,10 +5117,10 @@
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>254</v>
       </c>
@@ -5370,10 +5173,10 @@
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>255</v>
       </c>
@@ -5426,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>256</v>
       </c>
@@ -5482,10 +5285,10 @@
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>257</v>
       </c>
@@ -5538,10 +5341,10 @@
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>258</v>
       </c>
@@ -5594,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>259</v>
       </c>
@@ -5650,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>260</v>
       </c>
@@ -5706,10 +5509,10 @@
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>261</v>
       </c>
@@ -5762,10 +5565,10 @@
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>262</v>
       </c>
@@ -5818,10 +5621,10 @@
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>263</v>
       </c>
@@ -5874,10 +5677,10 @@
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>264</v>
       </c>
@@ -5930,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>265</v>
       </c>
@@ -5986,10 +5789,10 @@
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>266</v>
       </c>
@@ -6042,23 +5845,10 @@
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>267</v>
       </c>
@@ -6111,23 +5901,10 @@
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>268</v>
       </c>
@@ -6180,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>269</v>
       </c>
@@ -6236,10 +6013,10 @@
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>270</v>
       </c>
@@ -6292,10 +6069,10 @@
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>271</v>
       </c>
@@ -6348,10 +6125,10 @@
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>272</v>
       </c>
@@ -6404,10 +6181,10 @@
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>273</v>
       </c>
@@ -6460,10 +6237,10 @@
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>274</v>
       </c>
@@ -6516,10 +6293,10 @@
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>275</v>
       </c>
@@ -6572,10 +6349,10 @@
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>276</v>
       </c>
@@ -6628,10 +6405,10 @@
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>277</v>
       </c>
@@ -6684,10 +6461,10 @@
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>278</v>
       </c>
@@ -6740,10 +6517,10 @@
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>279</v>
       </c>
@@ -6796,10 +6573,10 @@
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>281</v>
       </c>
@@ -6846,16 +6623,16 @@
         <v>19</v>
       </c>
       <c r="P98" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>282</v>
       </c>
@@ -6902,35 +6679,16 @@
         <v>18</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>283</v>
       </c>
@@ -6983,10 +6741,10 @@
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>284</v>
       </c>
@@ -7039,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>285</v>
       </c>
@@ -7095,29 +6853,10 @@
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-      <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-      <c r="AH102" s="1"/>
-      <c r="AI102" s="1"/>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>286</v>
       </c>
@@ -7170,10 +6909,10 @@
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>287</v>
       </c>
@@ -7226,10 +6965,10 @@
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>288</v>
       </c>
@@ -7282,10 +7021,10 @@
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>289</v>
       </c>
@@ -7329,25 +7068,19 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>290</v>
       </c>
@@ -7400,10 +7133,10 @@
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291</v>
       </c>
@@ -7456,10 +7189,10 @@
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>292</v>
       </c>
@@ -7512,10 +7245,10 @@
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>293</v>
       </c>
@@ -7568,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>294</v>
       </c>
@@ -7624,10 +7357,10 @@
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>295</v>
       </c>
@@ -7680,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7736,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -7792,7 +7525,7 @@
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7848,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -7904,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7942,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7960,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -8016,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -8072,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -8128,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -8184,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -8240,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -8296,7 +8029,7 @@
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8352,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8408,7 +8141,7 @@
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8464,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="R126" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8520,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="R127" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8576,10 +8309,10 @@
         <v>4</v>
       </c>
       <c r="R128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>312</v>
       </c>
@@ -8632,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="R129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>313</v>
       </c>
@@ -8688,10 +8421,10 @@
         <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>314</v>
       </c>
@@ -8735,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P131" t="s">
         <v>18</v>
@@ -8744,10 +8477,10 @@
         <v>2</v>
       </c>
       <c r="R131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>316</v>
       </c>
@@ -8794,16 +8527,16 @@
         <v>21</v>
       </c>
       <c r="P132" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q132">
         <v>4</v>
       </c>
       <c r="R132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>317</v>
       </c>
@@ -8856,10 +8589,10 @@
         <v>5</v>
       </c>
       <c r="R133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>318</v>
       </c>
@@ -8912,10 +8645,10 @@
         <v>4</v>
       </c>
       <c r="R134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>319</v>
       </c>
@@ -8959,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P135" t="s">
         <v>18</v>
@@ -8968,10 +8701,10 @@
         <v>5</v>
       </c>
       <c r="R135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>320</v>
       </c>
@@ -9024,10 +8757,10 @@
         <v>3</v>
       </c>
       <c r="R136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>321</v>
       </c>
@@ -9080,10 +8813,10 @@
         <v>2</v>
       </c>
       <c r="R137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>322</v>
       </c>
@@ -9127,29 +8860,19 @@
         <v>0</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>323</v>
       </c>
@@ -9193,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P139" t="s">
         <v>19</v>
@@ -9202,10 +8925,10 @@
         <v>5</v>
       </c>
       <c r="R139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>324</v>
       </c>
@@ -9258,10 +8981,10 @@
         <v>1</v>
       </c>
       <c r="R140" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>326</v>
       </c>
@@ -9314,10 +9037,10 @@
         <v>4</v>
       </c>
       <c r="R141" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>328</v>
       </c>
@@ -9370,10 +9093,10 @@
         <v>3</v>
       </c>
       <c r="R142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>329</v>
       </c>
@@ -9426,10 +9149,10 @@
         <v>4</v>
       </c>
       <c r="R143" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>330</v>
       </c>
@@ -9482,10 +9205,10 @@
         <v>3</v>
       </c>
       <c r="R144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>331</v>
       </c>
@@ -9538,10 +9261,10 @@
         <v>4</v>
       </c>
       <c r="R145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>332</v>
       </c>
@@ -9594,10 +9317,10 @@
         <v>4</v>
       </c>
       <c r="R146" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>333</v>
       </c>
@@ -9650,10 +9373,10 @@
         <v>4</v>
       </c>
       <c r="R147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>334</v>
       </c>
@@ -9706,10 +9429,10 @@
         <v>3</v>
       </c>
       <c r="R148" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>335</v>
       </c>
@@ -9762,10 +9485,10 @@
         <v>4</v>
       </c>
       <c r="R149" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>336</v>
       </c>
@@ -9818,10 +9541,10 @@
         <v>2</v>
       </c>
       <c r="R150" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>337</v>
       </c>
@@ -9874,10 +9597,10 @@
         <v>1</v>
       </c>
       <c r="R151" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>338</v>
       </c>
@@ -9930,10 +9653,10 @@
         <v>2</v>
       </c>
       <c r="R152" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>339</v>
       </c>
@@ -9986,10 +9709,10 @@
         <v>1</v>
       </c>
       <c r="R153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>340</v>
       </c>
@@ -10042,10 +9765,10 @@
         <v>3</v>
       </c>
       <c r="R154" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>341</v>
       </c>
@@ -10098,10 +9821,10 @@
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>342</v>
       </c>
@@ -10154,10 +9877,10 @@
         <v>3</v>
       </c>
       <c r="R156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>343</v>
       </c>
@@ -10210,10 +9933,10 @@
         <v>4</v>
       </c>
       <c r="R157" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>344</v>
       </c>
@@ -10266,10 +9989,10 @@
         <v>3</v>
       </c>
       <c r="R158" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>345</v>
       </c>
@@ -10313,29 +10036,19 @@
         <v>0</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-      <c r="AB159" s="2"/>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>346</v>
       </c>
@@ -10388,7 +10101,7 @@
         <v>4</v>
       </c>
       <c r="R160" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -10444,7 +10157,7 @@
         <v>3</v>
       </c>
       <c r="R161" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -10500,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="R162" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -10556,7 +10269,7 @@
         <v>4</v>
       </c>
       <c r="R163" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -10612,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="R164" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -10668,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="R165" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10724,7 +10437,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -10780,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="R167" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10836,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="R168" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -10892,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="R169" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -10948,7 +10661,7 @@
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -11004,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="R171" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -11060,7 +10773,7 @@
         <v>4</v>
       </c>
       <c r="R172" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -11116,7 +10829,7 @@
         <v>3</v>
       </c>
       <c r="R173" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -11172,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="R174" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -11228,7 +10941,7 @@
         <v>2</v>
       </c>
       <c r="R175" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -11284,10 +10997,10 @@
         <v>4</v>
       </c>
       <c r="R176" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>363</v>
       </c>
@@ -11340,10 +11053,10 @@
         <v>5</v>
       </c>
       <c r="R177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>364</v>
       </c>
@@ -11396,10 +11109,10 @@
         <v>5</v>
       </c>
       <c r="R178" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>365</v>
       </c>
@@ -11443,29 +11156,19 @@
         <v>0</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="Q179" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="R179" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
-      <c r="AA179" s="2"/>
-      <c r="AB179" s="2"/>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>365</v>
       </c>
@@ -11518,20 +11221,10 @@
         <v>3</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
-      <c r="AB180" s="2"/>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>366</v>
       </c>
@@ -11584,10 +11277,10 @@
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>367</v>
       </c>
@@ -11640,20 +11333,10 @@
         <v>2</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
-      <c r="AA182" s="2"/>
-      <c r="AB182" s="2"/>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>367</v>
       </c>
@@ -11706,20 +11389,10 @@
         <v>5</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
-      <c r="AA183" s="2"/>
-      <c r="AB183" s="2"/>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>368</v>
       </c>
@@ -11772,10 +11445,10 @@
         <v>3</v>
       </c>
       <c r="R184" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>369</v>
       </c>
@@ -11828,10 +11501,10 @@
         <v>2</v>
       </c>
       <c r="R185" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>370</v>
       </c>
@@ -11884,10 +11557,10 @@
         <v>3</v>
       </c>
       <c r="R186" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>371</v>
       </c>
@@ -11940,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="R187" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>372</v>
       </c>
@@ -11996,10 +11669,10 @@
         <v>4</v>
       </c>
       <c r="R188" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>373</v>
       </c>
@@ -12052,10 +11725,10 @@
         <v>4</v>
       </c>
       <c r="R189" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>374</v>
       </c>
@@ -12108,10 +11781,10 @@
         <v>4</v>
       </c>
       <c r="R190" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>375</v>
       </c>
@@ -12164,10 +11837,10 @@
         <v>5</v>
       </c>
       <c r="R191" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>376</v>
       </c>
@@ -12220,7 +11893,7 @@
         <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -12276,7 +11949,7 @@
         <v>5</v>
       </c>
       <c r="R193" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -12323,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="O194" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P194" t="s">
         <v>19</v>
@@ -12332,7 +12005,7 @@
         <v>5</v>
       </c>
       <c r="R194" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -12388,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="R195" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12444,7 +12117,7 @@
         <v>2</v>
       </c>
       <c r="R196" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12500,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>2.h</t>
-  </si>
-  <si>
-    <t>Game play affect distraction time</t>
   </si>
   <si>
     <t>Surprise</t>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t xml:space="preserve">To see if we assigned sterotypes based on our essay type </t>
+  </si>
+  <si>
+    <t>Game.affect.distraction</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AA1048576"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,16 +1188,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1356,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1412,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1468,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1524,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1748,16 +1748,16 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2196,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2364,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2588,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2644,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2756,16 +2756,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2812,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2868,16 +2868,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q32">
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2980,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3036,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3092,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3148,16 +3148,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3204,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3372,16 +3372,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3484,16 +3484,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3540,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3764,16 +3764,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3820,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3876,16 +3876,16 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3920,28 +3920,28 @@
         <v>0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4044,16 +4044,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4212,16 +4212,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4268,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4324,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q57" s="1">
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4380,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4436,16 +4436,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4492,16 +4492,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4548,16 +4548,16 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4604,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="1">
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4660,16 +4660,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4716,16 +4716,16 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4772,16 +4772,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4828,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4884,16 +4884,16 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4940,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4996,16 +4996,16 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5052,16 +5052,16 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5108,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5164,16 +5164,16 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5220,16 +5220,16 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5276,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5332,16 +5332,16 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5388,16 +5388,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5444,16 +5444,16 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5500,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5612,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5668,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5836,16 +5836,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5892,16 +5892,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5948,16 +5948,16 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -6004,16 +6004,16 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6060,16 +6060,16 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q88">
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6116,16 +6116,16 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6172,16 +6172,16 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6228,16 +6228,16 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q91">
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6284,16 +6284,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6340,16 +6340,16 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -6396,16 +6396,16 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -6452,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -6508,16 +6508,16 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -6564,16 +6564,16 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q97">
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6620,16 +6620,16 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6676,16 +6676,16 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6732,16 +6732,16 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6788,16 +6788,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6844,16 +6844,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -6900,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -6956,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7012,16 +7012,16 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7068,16 +7068,16 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q106" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -7124,16 +7124,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -7180,16 +7180,16 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7236,16 +7236,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q109">
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7292,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -7348,16 +7348,16 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -7404,16 +7404,16 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7460,16 +7460,16 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -7516,16 +7516,16 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7572,16 +7572,16 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q115">
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -7628,16 +7628,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7684,16 +7684,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -7740,16 +7740,16 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -7796,16 +7796,16 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -7852,16 +7852,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -7908,16 +7908,16 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -7964,16 +7964,16 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q122">
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -8020,16 +8020,16 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8076,16 +8076,16 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q124">
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8132,16 +8132,16 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8188,16 +8188,16 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q126">
         <v>4</v>
       </c>
       <c r="R126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8244,16 +8244,16 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q127">
         <v>4</v>
       </c>
       <c r="R127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8300,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q128">
         <v>4</v>
       </c>
       <c r="R128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8356,16 +8356,16 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q129">
         <v>1</v>
       </c>
       <c r="R129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8412,16 +8412,16 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q130">
         <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8468,16 +8468,16 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q131">
         <v>2</v>
       </c>
       <c r="R131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8524,16 +8524,16 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q132">
         <v>4</v>
       </c>
       <c r="R132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8580,16 +8580,16 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q133">
         <v>5</v>
       </c>
       <c r="R133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -8636,16 +8636,16 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q134">
         <v>4</v>
       </c>
       <c r="R134" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q135">
         <v>5</v>
       </c>
       <c r="R135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8748,16 +8748,16 @@
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q136">
         <v>3</v>
       </c>
       <c r="R136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -8804,16 +8804,16 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q137">
         <v>2</v>
       </c>
       <c r="R137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -8860,16 +8860,16 @@
         <v>0</v>
       </c>
       <c r="O138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q138" s="2" t="s">
+      <c r="R138" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -8916,16 +8916,16 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q139">
         <v>5</v>
       </c>
       <c r="R139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -8972,16 +8972,16 @@
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q140">
         <v>1</v>
       </c>
       <c r="R140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -9028,16 +9028,16 @@
         <v>0</v>
       </c>
       <c r="O141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q141">
         <v>4</v>
       </c>
       <c r="R141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q142">
         <v>3</v>
       </c>
       <c r="R142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q143">
         <v>4</v>
       </c>
       <c r="R143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9196,16 +9196,16 @@
         <v>0</v>
       </c>
       <c r="O144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q144">
         <v>3</v>
       </c>
       <c r="R144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q145">
         <v>4</v>
       </c>
       <c r="R145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9308,16 +9308,16 @@
         <v>0</v>
       </c>
       <c r="O146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q146">
         <v>4</v>
       </c>
       <c r="R146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9364,16 +9364,16 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q147">
         <v>4</v>
       </c>
       <c r="R147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9420,16 +9420,16 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q148">
         <v>3</v>
       </c>
       <c r="R148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q149">
         <v>4</v>
       </c>
       <c r="R149" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -9532,16 +9532,16 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q150">
         <v>2</v>
       </c>
       <c r="R150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -9588,16 +9588,16 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q151">
         <v>1</v>
       </c>
       <c r="R151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q152">
         <v>2</v>
       </c>
       <c r="R152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -9700,16 +9700,16 @@
         <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q153">
         <v>1</v>
       </c>
       <c r="R153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -9756,16 +9756,16 @@
         <v>0</v>
       </c>
       <c r="O154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q154">
         <v>3</v>
       </c>
       <c r="R154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -9812,16 +9812,16 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q155">
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9868,16 +9868,16 @@
         <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q156">
         <v>3</v>
       </c>
       <c r="R156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9924,16 +9924,16 @@
         <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q157">
         <v>4</v>
       </c>
       <c r="R157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -9980,16 +9980,16 @@
         <v>0</v>
       </c>
       <c r="O158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q158">
         <v>3</v>
       </c>
       <c r="R158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -10036,16 +10036,16 @@
         <v>0</v>
       </c>
       <c r="O159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q159" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q159" s="2" t="s">
+      <c r="R159" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="R159" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -10092,16 +10092,16 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q160">
         <v>4</v>
       </c>
       <c r="R160" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -10148,16 +10148,16 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q161">
         <v>3</v>
       </c>
       <c r="R161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -10204,16 +10204,16 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q162">
         <v>2</v>
       </c>
       <c r="R162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -10260,16 +10260,16 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q163">
         <v>4</v>
       </c>
       <c r="R163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -10316,16 +10316,16 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q164">
         <v>3</v>
       </c>
       <c r="R164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -10372,16 +10372,16 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q165">
         <v>1</v>
       </c>
       <c r="R165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10428,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q166">
         <v>2</v>
       </c>
       <c r="R166" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -10484,16 +10484,16 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q167">
         <v>1</v>
       </c>
       <c r="R167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10540,16 +10540,16 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q168">
         <v>3</v>
       </c>
       <c r="R168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -10596,16 +10596,16 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q169">
         <v>2</v>
       </c>
       <c r="R169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -10652,16 +10652,16 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q170">
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -10708,16 +10708,16 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q171">
         <v>4</v>
       </c>
       <c r="R171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10764,16 +10764,16 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q172">
         <v>4</v>
       </c>
       <c r="R172" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q173">
         <v>3</v>
       </c>
       <c r="R173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -10876,16 +10876,16 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q174">
         <v>3</v>
       </c>
       <c r="R174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -10932,16 +10932,16 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q175">
         <v>2</v>
       </c>
       <c r="R175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -10988,16 +10988,16 @@
         <v>1</v>
       </c>
       <c r="O176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q176">
         <v>4</v>
       </c>
       <c r="R176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -11044,16 +11044,16 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q177">
         <v>5</v>
       </c>
       <c r="R177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -11100,16 +11100,16 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q178">
         <v>5</v>
       </c>
       <c r="R178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -11156,16 +11156,16 @@
         <v>0</v>
       </c>
       <c r="O179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q179" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P179" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q179" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="R179" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -11212,16 +11212,16 @@
         <v>0</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q180" s="2">
         <v>3</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -11268,16 +11268,16 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q181">
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -11324,16 +11324,16 @@
         <v>0</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q182" s="2">
         <v>2</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -11380,16 +11380,16 @@
         <v>0</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q183" s="2">
         <v>5</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -11436,16 +11436,16 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q184">
         <v>3</v>
       </c>
       <c r="R184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -11492,16 +11492,16 @@
         <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q185">
         <v>2</v>
       </c>
       <c r="R185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -11548,16 +11548,16 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q186">
         <v>3</v>
       </c>
       <c r="R186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -11604,16 +11604,16 @@
         <v>0</v>
       </c>
       <c r="O187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q187">
         <v>1</v>
       </c>
       <c r="R187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -11660,16 +11660,16 @@
         <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q188">
         <v>4</v>
       </c>
       <c r="R188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -11716,16 +11716,16 @@
         <v>0</v>
       </c>
       <c r="O189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q189">
         <v>4</v>
       </c>
       <c r="R189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -11772,16 +11772,16 @@
         <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q190">
         <v>4</v>
       </c>
       <c r="R190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -11828,16 +11828,16 @@
         <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q191">
         <v>5</v>
       </c>
       <c r="R191" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -11884,16 +11884,16 @@
         <v>0</v>
       </c>
       <c r="O192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q192">
         <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -11940,16 +11940,16 @@
         <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q193">
         <v>5</v>
       </c>
       <c r="R193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -11996,16 +11996,16 @@
         <v>0</v>
       </c>
       <c r="O194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q194">
         <v>5</v>
       </c>
       <c r="R194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -12052,16 +12052,16 @@
         <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q195">
         <v>4</v>
       </c>
       <c r="R195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12108,16 +12108,16 @@
         <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q196">
         <v>2</v>
       </c>
       <c r="R196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12164,16 +12164,16 @@
         <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q197">
         <v>2</v>
       </c>
       <c r="R197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$197</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="217">
   <si>
     <t>Subject</t>
   </si>
@@ -60,42 +63,21 @@
     <t>2.h</t>
   </si>
   <si>
-    <t>Game play affect distraction time</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
     <t>Suspected</t>
   </si>
   <si>
-    <t xml:space="preserve">Why </t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t xml:space="preserve">As an other form of distraction. The essay grading was before we set distraction. This influenced our views on each other. </t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t xml:space="preserve">To understand how we punish the other person (or not) the comments </t>
   </si>
   <si>
-    <t>Mabye</t>
-  </si>
-  <si>
     <t>Mabye othe person's evaluation could have affected</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
     <t>To see how angry we were related to how much aggression we feel back</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
   </si>
   <si>
     <t>To see if your partners response had any affect or punishment during the distraction test</t>
-  </si>
-  <si>
-    <t>mabye</t>
   </si>
   <si>
     <t>Depending on how the essay was graded we would probably decide how long the distractionwas. So if they gave a bad review it would cause a longer distraction</t>
@@ -185,9 +164,6 @@
     </r>
   </si>
   <si>
-    <t>nno</t>
-  </si>
-  <si>
     <t>to make it a surprise or unbiased</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t>to see how upset we were with each others grading</t>
   </si>
   <si>
-    <t>X-ed out</t>
-  </si>
-  <si>
     <t>Measuring aggression from video games and after "arguing" w/ someone of a different viewpoint</t>
   </si>
   <si>
@@ -263,15 +236,9 @@
     <t>To see if our writing topic had any effect</t>
   </si>
   <si>
-    <t>circle w/ slash</t>
-  </si>
-  <si>
     <t>To see if the evaluation of our essays affected how we treated our partner</t>
   </si>
   <si>
-    <t>0- N/A note</t>
-  </si>
-  <si>
     <t>So it could be random and because of any left over feelings from my essay grade</t>
   </si>
   <si>
@@ -405,9 +372,6 @@
   </si>
   <si>
     <t>I guess, dealing with different times of distraction. But why would the exoerimenter couldn't do that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
   </si>
   <si>
     <r>
@@ -425,9 +389,6 @@
     </r>
   </si>
   <si>
-    <t>no (not very much)</t>
-  </si>
-  <si>
     <t>Because the video game may make me aggressive., so I may choose the longest time. But actually, the comments makes me feel not good very nuch</t>
   </si>
   <si>
@@ -449,12 +410,6 @@
     <t>N/a</t>
   </si>
   <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -488,9 +443,6 @@
     <t>To measure nothing</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Perhaps to see how much we would distract the other person given the way they viewed the other's essay</t>
   </si>
   <si>
@@ -738,6 +690,21 @@
   </si>
   <si>
     <t xml:space="preserve">To see if we assigned sterotypes based on our essay type </t>
+  </si>
+  <si>
+    <t>Why_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Game.affect.distraction</t>
   </si>
 </sst>
 </file>
@@ -889,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,16 +1155,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1244,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1300,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1356,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1412,16 +1379,16 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1468,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1524,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1580,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1636,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1692,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1748,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1804,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1860,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1916,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1972,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2028,16 +1995,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2084,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2140,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2196,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2252,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2308,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2364,16 +2331,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2420,16 +2387,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2476,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2532,16 +2499,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2588,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2644,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2700,16 +2667,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P28" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2756,16 +2723,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2812,16 +2779,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2868,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P31" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2924,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P32" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2980,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3036,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3092,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3148,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3204,16 +3171,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P37" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3260,16 +3227,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3316,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P39" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3372,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P40" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P41" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3484,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3540,16 +3507,16 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3596,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P44" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3652,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3674,11 +3641,11 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>69</v>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -3708,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3764,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P47" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3820,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P48" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3876,16 +3843,16 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P49" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3907,11 +3874,11 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>74</v>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3919,29 +3886,29 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>74</v>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>76</v>
+      <c r="N50" s="2">
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3988,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P51" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4044,16 +4011,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4100,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P53" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4156,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P54" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4212,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P55" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4268,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4324,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q57" s="1">
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4380,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4436,16 +4403,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4492,16 +4459,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P60" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4548,16 +4515,16 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P61" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4604,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q62" s="1">
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4660,16 +4627,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P63" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4716,16 +4683,16 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4772,16 +4739,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P65" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4828,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4884,16 +4851,16 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4940,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4996,16 +4963,16 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5052,16 +5019,16 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5108,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5164,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5220,16 +5187,16 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5276,16 +5243,16 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P74" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5332,16 +5299,16 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P75" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5388,16 +5355,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5444,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P77" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5500,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5556,16 +5523,16 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P79" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5612,16 +5579,16 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5668,16 +5635,16 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5724,16 +5691,16 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5780,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5836,16 +5803,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5892,16 +5859,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5948,16 +5915,16 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -6004,16 +5971,16 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6060,16 +6027,16 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P88" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q88">
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6116,16 +6083,16 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6172,16 +6139,16 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P90" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6228,16 +6195,16 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P91" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q91">
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6284,16 +6251,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6340,16 +6307,16 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -6396,16 +6363,16 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -6452,16 +6419,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -6508,16 +6475,16 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -6564,16 +6531,16 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P97" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q97">
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6620,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P98" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6676,16 +6643,16 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6732,16 +6699,16 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P100" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6788,16 +6755,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P101" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6844,16 +6811,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -6900,16 +6867,16 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P103" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -6956,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -7012,16 +6979,16 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P105" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7067,17 +7034,13 @@
       <c r="N106" s="2">
         <v>0</v>
       </c>
-      <c r="O106" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="O106" s="2"/>
       <c r="P106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -7124,16 +7087,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P107" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -7180,16 +7143,16 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P108" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7236,16 +7199,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P109" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q109">
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7292,16 +7255,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P110" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -7348,16 +7311,16 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P111" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -7404,16 +7367,16 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P112" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7460,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P113" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -7516,16 +7479,16 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P114" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7572,16 +7535,16 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P115" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q115">
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -7628,16 +7591,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P116" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7674,9 +7637,6 @@
       <c r="K117">
         <v>0</v>
       </c>
-      <c r="L117" t="s">
-        <v>145</v>
-      </c>
       <c r="M117">
         <v>0</v>
       </c>
@@ -7684,16 +7644,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P117" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -7740,16 +7700,16 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -7796,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P119" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -7852,16 +7812,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P120" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -7908,16 +7868,16 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P121" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -7964,16 +7924,16 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P122" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q122">
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -8020,16 +7980,16 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P123" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8076,16 +8036,16 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P124" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q124">
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8132,16 +8092,16 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P125" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8188,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P126" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q126">
         <v>4</v>
       </c>
       <c r="R126" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8244,16 +8204,16 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P127" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q127">
         <v>4</v>
       </c>
       <c r="R127" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8300,16 +8260,16 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P128" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q128">
         <v>4</v>
       </c>
       <c r="R128" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8356,16 +8316,16 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P129" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q129">
         <v>1</v>
       </c>
       <c r="R129" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8412,16 +8372,16 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P130" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q130">
         <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8468,16 +8428,16 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P131" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q131">
         <v>2</v>
       </c>
       <c r="R131" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8524,16 +8484,16 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P132" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="Q132">
         <v>4</v>
       </c>
       <c r="R132" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8580,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q133">
         <v>5</v>
       </c>
       <c r="R133" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -8636,16 +8596,16 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P134" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q134">
         <v>4</v>
       </c>
       <c r="R134" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -8692,16 +8652,16 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P135" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q135">
         <v>5</v>
       </c>
       <c r="R135" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8748,16 +8708,16 @@
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P136" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q136">
         <v>3</v>
       </c>
       <c r="R136" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -8804,16 +8764,16 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P137" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q137">
         <v>2</v>
       </c>
       <c r="R137" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -8859,17 +8819,11 @@
       <c r="N138" s="2">
         <v>0</v>
       </c>
-      <c r="O138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q138" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -8916,16 +8870,16 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P139" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q139">
         <v>5</v>
       </c>
       <c r="R139" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -8972,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P140" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q140">
         <v>1</v>
       </c>
       <c r="R140" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -9028,16 +8982,16 @@
         <v>0</v>
       </c>
       <c r="O141" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P141" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q141">
         <v>4</v>
       </c>
       <c r="R141" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -9084,16 +9038,16 @@
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P142" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q142">
         <v>3</v>
       </c>
       <c r="R142" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -9140,16 +9094,16 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P143" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q143">
         <v>4</v>
       </c>
       <c r="R143" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9196,16 +9150,16 @@
         <v>0</v>
       </c>
       <c r="O144" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P144" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q144">
         <v>3</v>
       </c>
       <c r="R144" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9252,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P145" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q145">
         <v>4</v>
       </c>
       <c r="R145" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9308,16 +9262,16 @@
         <v>0</v>
       </c>
       <c r="O146" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P146" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q146">
         <v>4</v>
       </c>
       <c r="R146" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9364,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P147" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q147">
         <v>4</v>
       </c>
       <c r="R147" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9420,16 +9374,16 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P148" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q148">
         <v>3</v>
       </c>
       <c r="R148" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9476,16 +9430,16 @@
         <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P149" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q149">
         <v>4</v>
       </c>
       <c r="R149" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -9532,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P150" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q150">
         <v>2</v>
       </c>
       <c r="R150" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -9588,16 +9542,16 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P151" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q151">
         <v>1</v>
       </c>
       <c r="R151" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -9644,16 +9598,16 @@
         <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P152" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q152">
         <v>2</v>
       </c>
       <c r="R152" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -9700,16 +9654,16 @@
         <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P153" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q153">
         <v>1</v>
       </c>
       <c r="R153" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -9756,16 +9710,16 @@
         <v>0</v>
       </c>
       <c r="O154" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P154" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q154">
         <v>3</v>
       </c>
       <c r="R154" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -9812,16 +9766,16 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P155" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q155">
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9868,16 +9822,16 @@
         <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P156" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q156">
         <v>3</v>
       </c>
       <c r="R156" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9924,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P157" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q157">
         <v>4</v>
       </c>
       <c r="R157" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -9980,16 +9934,16 @@
         <v>0</v>
       </c>
       <c r="O158" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P158" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q158">
         <v>3</v>
       </c>
       <c r="R158" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -10035,17 +9989,11 @@
       <c r="N159" s="2">
         <v>0</v>
       </c>
-      <c r="O159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q159" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
       <c r="R159" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -10092,16 +10040,16 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P160" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q160">
         <v>4</v>
       </c>
       <c r="R160" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -10148,16 +10096,16 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P161" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q161">
         <v>3</v>
       </c>
       <c r="R161" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -10204,16 +10152,16 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P162" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q162">
         <v>2</v>
       </c>
       <c r="R162" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -10260,16 +10208,16 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P163" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q163">
         <v>4</v>
       </c>
       <c r="R163" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -10316,16 +10264,16 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P164" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q164">
         <v>3</v>
       </c>
       <c r="R164" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -10372,16 +10320,16 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P165" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q165">
         <v>1</v>
       </c>
       <c r="R165" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10428,16 +10376,16 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P166" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q166">
         <v>2</v>
       </c>
       <c r="R166" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -10484,16 +10432,16 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P167" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q167">
         <v>1</v>
       </c>
       <c r="R167" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10540,16 +10488,16 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P168" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q168">
         <v>3</v>
       </c>
       <c r="R168" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -10596,16 +10544,16 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P169" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q169">
         <v>2</v>
       </c>
       <c r="R169" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -10652,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P170" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q170">
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -10708,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P171" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q171">
         <v>4</v>
       </c>
       <c r="R171" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10764,16 +10712,16 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P172" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q172">
         <v>4</v>
       </c>
       <c r="R172" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -10820,16 +10768,16 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P173" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q173">
         <v>3</v>
       </c>
       <c r="R173" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -10876,16 +10824,16 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q174">
         <v>3</v>
       </c>
       <c r="R174" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -10932,16 +10880,16 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P175" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q175">
         <v>2</v>
       </c>
       <c r="R175" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -10988,16 +10936,16 @@
         <v>1</v>
       </c>
       <c r="O176" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P176" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q176">
         <v>4</v>
       </c>
       <c r="R176" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -11044,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q177">
         <v>5</v>
       </c>
       <c r="R177" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -11100,16 +11048,16 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P178" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q178">
         <v>5</v>
       </c>
       <c r="R178" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -11155,17 +11103,11 @@
       <c r="N179" s="2">
         <v>0</v>
       </c>
-      <c r="O179" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P179" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q179" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
       <c r="R179" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -11212,16 +11154,16 @@
         <v>0</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q180" s="2">
         <v>3</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -11268,16 +11210,16 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q181">
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -11324,16 +11266,16 @@
         <v>0</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q182" s="2">
         <v>2</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -11380,16 +11322,16 @@
         <v>0</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q183" s="2">
         <v>5</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -11436,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P184" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q184">
         <v>3</v>
       </c>
       <c r="R184" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -11492,16 +11434,16 @@
         <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q185">
         <v>2</v>
       </c>
       <c r="R185" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -11548,16 +11490,16 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="P186" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q186">
         <v>3</v>
       </c>
       <c r="R186" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -11604,16 +11546,16 @@
         <v>0</v>
       </c>
       <c r="O187" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P187" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q187">
         <v>1</v>
       </c>
       <c r="R187" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -11660,16 +11602,16 @@
         <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P188" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q188">
         <v>4</v>
       </c>
       <c r="R188" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -11716,16 +11658,16 @@
         <v>0</v>
       </c>
       <c r="O189" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P189" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q189">
         <v>4</v>
       </c>
       <c r="R189" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -11772,16 +11714,16 @@
         <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P190" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="Q190">
         <v>4</v>
       </c>
       <c r="R190" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -11828,16 +11770,16 @@
         <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P191" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q191">
         <v>5</v>
       </c>
       <c r="R191" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -11884,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="O192" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P192" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q192">
         <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -11940,16 +11882,16 @@
         <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P193" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Q193">
         <v>5</v>
       </c>
       <c r="R193" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -11995,17 +11937,14 @@
       <c r="N194">
         <v>0</v>
       </c>
-      <c r="O194" t="s">
-        <v>132</v>
-      </c>
       <c r="P194" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q194">
         <v>5</v>
       </c>
       <c r="R194" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -12052,16 +11991,16 @@
         <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P195" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q195">
         <v>4</v>
       </c>
       <c r="R195" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12108,16 +12047,16 @@
         <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P196" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q196">
         <v>2</v>
       </c>
       <c r="R196" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12164,19 +12103,20 @@
         <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="P197" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="Q197">
         <v>2</v>
       </c>
       <c r="R197" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R197"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,11 +789,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -856,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,7 +893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,64 +1170,64 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>183</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
+      <c r="A2" s="4">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1267,27 +1269,27 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1299,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1314,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="P4" t="s">
         <v>214</v>
@@ -1332,63 +1334,63 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>185</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>168</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1449,16 +1451,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1467,22 +1469,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1491,30 +1493,30 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="P7" t="s">
         <v>140</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1523,22 +1525,22 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1547,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
         <v>140</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2009,10 +2011,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2021,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2042,33 +2044,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2077,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2098,25 +2100,25 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -12116,7 +12118,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R197"/>
+  <autoFilter ref="A1:R197">
+    <sortState ref="A2:R197">
+      <sortCondition ref="A1:A197"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Debrief_TG.xlsx
+++ b/raw-data-prep/raw_data/Debrief_TG.xlsx
@@ -22,45 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="217">
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>1.a</t>
-  </si>
-  <si>
-    <t>1.b</t>
-  </si>
-  <si>
-    <t>1.c</t>
-  </si>
-  <si>
-    <t>1.d</t>
-  </si>
-  <si>
-    <t>1.e</t>
-  </si>
-  <si>
-    <t>2.a</t>
-  </si>
-  <si>
-    <t>2.b</t>
-  </si>
-  <si>
-    <t>2.c</t>
-  </si>
-  <si>
-    <t>2.d</t>
-  </si>
-  <si>
-    <t>2.e</t>
-  </si>
-  <si>
-    <t>2.f</t>
-  </si>
-  <si>
-    <t>2.g</t>
-  </si>
-  <si>
-    <t>2.h</t>
   </si>
   <si>
     <t>Surprise</t>
@@ -705,6 +666,45 @@
   </si>
   <si>
     <t>Game.affect.distraction</t>
+  </si>
+  <si>
+    <t>Q1.a</t>
+  </si>
+  <si>
+    <t>Q1.b</t>
+  </si>
+  <si>
+    <t>Q1.c</t>
+  </si>
+  <si>
+    <t>Q1.d</t>
+  </si>
+  <si>
+    <t>Q1.e</t>
+  </si>
+  <si>
+    <t>Q2.a</t>
+  </si>
+  <si>
+    <t>Q2.b</t>
+  </si>
+  <si>
+    <t>Q2.c</t>
+  </si>
+  <si>
+    <t>Q2.d</t>
+  </si>
+  <si>
+    <t>Q2.e</t>
+  </si>
+  <si>
+    <t>Q2.f</t>
+  </si>
+  <si>
+    <t>Q2.g</t>
+  </si>
+  <si>
+    <t>Q2.h</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,55 +1118,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1213,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="4">
         <v>3</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="5">
         <v>2</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1549,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1717,16 +1717,16 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1829,16 +1829,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1885,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1941,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1997,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2109,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2277,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2333,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2389,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2613,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2669,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="1">
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2949,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3005,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3061,16 +3061,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3173,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="1">
         <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3285,16 +3285,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3397,16 +3397,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3453,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3509,16 +3509,16 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3565,16 +3565,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3621,16 +3621,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q45">
         <v>4</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3677,16 +3677,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q46" s="2">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3733,16 +3733,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q47">
         <v>4</v>
       </c>
       <c r="R47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3789,16 +3789,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3845,16 +3845,16 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="2">
         <v>3</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4013,16 +4013,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4069,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4125,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P54" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q54">
         <v>3</v>
       </c>
       <c r="R54" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4181,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4237,16 +4237,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4293,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q57" s="1">
         <v>5</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4349,16 +4349,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4405,16 +4405,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4461,16 +4461,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4517,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4573,16 +4573,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q62" s="1">
         <v>3</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P63" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4685,16 +4685,16 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4741,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P65" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4797,16 +4797,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4853,16 +4853,16 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q67" s="1">
         <v>3</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4909,16 +4909,16 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4965,16 +4965,16 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5021,16 +5021,16 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5077,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5133,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5189,16 +5189,16 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5245,16 +5245,16 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P74" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5301,16 +5301,16 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P75" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5357,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q76">
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5413,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5469,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5525,16 +5525,16 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P79" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5581,16 +5581,16 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5637,16 +5637,16 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P81" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5693,16 +5693,16 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P82" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q82">
         <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5749,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P83" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q83">
         <v>4</v>
       </c>
       <c r="R83" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5805,16 +5805,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5861,16 +5861,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q85" s="1">
         <v>4</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5917,16 +5917,16 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P86" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q86">
         <v>2</v>
       </c>
       <c r="R86" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5973,16 +5973,16 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P87" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6029,16 +6029,16 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P88" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q88">
         <v>2</v>
       </c>
       <c r="R88" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6085,16 +6085,16 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P89" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6141,16 +6141,16 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P90" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6197,16 +6197,16 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P91" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q91">
         <v>2</v>
       </c>
       <c r="R91" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6253,16 +6253,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P92" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
       <c r="R92" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6309,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -6365,16 +6365,16 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P94" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -6421,16 +6421,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P95" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -6477,16 +6477,16 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q96">
         <v>2</v>
       </c>
       <c r="R96" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -6533,16 +6533,16 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P97" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q97">
         <v>2</v>
       </c>
       <c r="R97" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6589,16 +6589,16 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="Q98">
         <v>2</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6645,16 +6645,16 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q99" s="1">
         <v>5</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6701,16 +6701,16 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P100" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6757,16 +6757,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P101" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -6869,16 +6869,16 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P103" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q103">
         <v>4</v>
       </c>
       <c r="R103" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -6925,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P104" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -6981,16 +6981,16 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P105" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -7038,11 +7038,11 @@
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -7089,16 +7089,16 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P107" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -7145,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q108">
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -7201,16 +7201,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P109" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q109">
         <v>2</v>
       </c>
       <c r="R109" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -7257,16 +7257,16 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P110" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -7313,16 +7313,16 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P111" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q111">
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -7369,16 +7369,16 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P112" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q112">
         <v>4</v>
       </c>
       <c r="R112" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -7425,16 +7425,16 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P113" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -7481,16 +7481,16 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P114" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -7537,16 +7537,16 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P115" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q115">
         <v>2</v>
       </c>
       <c r="R115" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -7593,16 +7593,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P116" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -7646,16 +7646,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
       <c r="R117" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -7702,16 +7702,16 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P118" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
       <c r="R118" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -7758,16 +7758,16 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P119" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q119">
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -7814,16 +7814,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P120" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q120">
         <v>4</v>
       </c>
       <c r="R120" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -7870,16 +7870,16 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P121" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q121">
         <v>2</v>
       </c>
       <c r="R121" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -7926,16 +7926,16 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P122" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q122">
         <v>3</v>
       </c>
       <c r="R122" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -7982,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P123" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q123">
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -8038,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P124" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q124">
         <v>2</v>
       </c>
       <c r="R124" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -8094,16 +8094,16 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P125" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q125">
         <v>3</v>
       </c>
       <c r="R125" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -8150,16 +8150,16 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P126" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q126">
         <v>4</v>
       </c>
       <c r="R126" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -8206,16 +8206,16 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P127" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q127">
         <v>4</v>
       </c>
       <c r="R127" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -8262,16 +8262,16 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P128" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q128">
         <v>4</v>
       </c>
       <c r="R128" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8318,16 +8318,16 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P129" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q129">
         <v>1</v>
       </c>
       <c r="R129" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P130" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q130">
         <v>2</v>
       </c>
       <c r="R130" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8430,16 +8430,16 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P131" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q131">
         <v>2</v>
       </c>
       <c r="R131" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8486,16 +8486,16 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P132" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q132">
         <v>4</v>
       </c>
       <c r="R132" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8542,16 +8542,16 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P133" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q133">
         <v>5</v>
       </c>
       <c r="R133" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -8598,16 +8598,16 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P134" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q134">
         <v>4</v>
       </c>
       <c r="R134" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -8654,16 +8654,16 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P135" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q135">
         <v>5</v>
       </c>
       <c r="R135" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -8710,16 +8710,16 @@
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P136" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q136">
         <v>3</v>
       </c>
       <c r="R136" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -8766,16 +8766,16 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P137" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q137">
         <v>2</v>
       </c>
       <c r="R137" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -8872,16 +8872,16 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P139" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q139">
         <v>5</v>
       </c>
       <c r="R139" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -8928,16 +8928,16 @@
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P140" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q140">
         <v>1</v>
       </c>
       <c r="R140" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -8984,16 +8984,16 @@
         <v>0</v>
       </c>
       <c r="O141" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P141" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q141">
         <v>4</v>
       </c>
       <c r="R141" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -9040,16 +9040,16 @@
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P142" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q142">
         <v>3</v>
       </c>
       <c r="R142" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P143" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q143">
         <v>4</v>
       </c>
       <c r="R143" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -9152,16 +9152,16 @@
         <v>0</v>
       </c>
       <c r="O144" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P144" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q144">
         <v>3</v>
       </c>
       <c r="R144" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -9208,16 +9208,16 @@
         <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P145" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q145">
         <v>4</v>
       </c>
       <c r="R145" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -9264,16 +9264,16 @@
         <v>0</v>
       </c>
       <c r="O146" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P146" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q146">
         <v>4</v>
       </c>
       <c r="R146" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -9320,16 +9320,16 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P147" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q147">
         <v>4</v>
       </c>
       <c r="R147" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -9376,16 +9376,16 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P148" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q148">
         <v>3</v>
       </c>
       <c r="R148" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -9432,16 +9432,16 @@
         <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q149">
         <v>4</v>
       </c>
       <c r="R149" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -9488,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P150" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q150">
         <v>2</v>
       </c>
       <c r="R150" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -9544,16 +9544,16 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P151" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q151">
         <v>1</v>
       </c>
       <c r="R151" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -9600,16 +9600,16 @@
         <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P152" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q152">
         <v>2</v>
       </c>
       <c r="R152" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -9656,16 +9656,16 @@
         <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P153" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q153">
         <v>1</v>
       </c>
       <c r="R153" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -9712,16 +9712,16 @@
         <v>0</v>
       </c>
       <c r="O154" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P154" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q154">
         <v>3</v>
       </c>
       <c r="R154" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -9768,16 +9768,16 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P155" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q155">
         <v>2</v>
       </c>
       <c r="R155" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -9824,16 +9824,16 @@
         <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P156" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q156">
         <v>3</v>
       </c>
       <c r="R156" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P157" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q157">
         <v>4</v>
       </c>
       <c r="R157" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -9936,16 +9936,16 @@
         <v>0</v>
       </c>
       <c r="O158" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P158" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q158">
         <v>3</v>
       </c>
       <c r="R158" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -9995,7 +9995,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -10042,16 +10042,16 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P160" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q160">
         <v>4</v>
       </c>
       <c r="R160" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -10098,16 +10098,16 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P161" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q161">
         <v>3</v>
       </c>
       <c r="R161" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q162">
         <v>2</v>
       </c>
       <c r="R162" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -10210,16 +10210,16 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P163" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q163">
         <v>4</v>
       </c>
       <c r="R163" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -10266,16 +10266,16 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P164" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q164">
         <v>3</v>
       </c>
       <c r="R164" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -10322,16 +10322,16 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P165" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q165">
         <v>1</v>
       </c>
       <c r="R165" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -10378,16 +10378,16 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P166" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q166">
         <v>2</v>
       </c>
       <c r="R166" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P167" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q167">
         <v>1</v>
       </c>
       <c r="R167" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10490,16 +10490,16 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P168" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q168">
         <v>3</v>
       </c>
       <c r="R168" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -10546,16 +10546,16 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q169">
         <v>2</v>
       </c>
       <c r="R169" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -10602,16 +10602,16 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P170" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q170">
         <v>2</v>
       </c>
       <c r="R170" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -10658,16 +10658,16 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P171" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q171">
         <v>4</v>
       </c>
       <c r="R171" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10714,16 +10714,16 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P172" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q172">
         <v>4</v>
       </c>
       <c r="R172" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -10770,16 +10770,16 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P173" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q173">
         <v>3</v>
       </c>
       <c r="R173" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -10826,16 +10826,16 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q174">
         <v>3</v>
       </c>
       <c r="R174" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -10882,16 +10882,16 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P175" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q175">
         <v>2</v>
       </c>
       <c r="R175" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -10938,16 +10938,16 @@
         <v>1</v>
       </c>
       <c r="O176" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P176" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q176">
         <v>4</v>
       </c>
       <c r="R176" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -10994,16 +10994,16 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P177" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q177">
         <v>5</v>
       </c>
       <c r="R177" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -11050,16 +11050,16 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P178" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q178">
         <v>5</v>
       </c>
       <c r="R178" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -11109,7 +11109,7 @@
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
       <c r="R179" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -11156,16 +11156,16 @@
         <v>0</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q180" s="2">
         <v>3</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -11212,16 +11212,16 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P181" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q181">
         <v>2</v>
       </c>
       <c r="R181" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -11268,16 +11268,16 @@
         <v>0</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q182" s="2">
         <v>2</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -11324,16 +11324,16 @@
         <v>0</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q183" s="2">
         <v>5</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -11380,16 +11380,16 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P184" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q184">
         <v>3</v>
       </c>
       <c r="R184" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -11436,16 +11436,16 @@
         <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P185" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q185">
         <v>2</v>
       </c>
       <c r="R185" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -11492,16 +11492,16 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P186" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q186">
         <v>3</v>
       </c>
       <c r="R186" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -11548,16 +11548,16 @@
         <v>0</v>
       </c>
       <c r="O187" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P187" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q187">
         <v>1</v>
       </c>
       <c r="R187" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -11604,16 +11604,16 @@
         <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P188" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q188">
         <v>4</v>
       </c>
       <c r="R188" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="O189" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P189" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q189">
         <v>4</v>
       </c>
       <c r="R189" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -11716,16 +11716,16 @@
         <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P190" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q190">
         <v>4</v>
       </c>
       <c r="R190" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -11772,16 +11772,16 @@
         <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P191" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q191">
         <v>5</v>
       </c>
       <c r="R191" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -11828,16 +11828,16 @@
         <v>0</v>
       </c>
       <c r="O192" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P192" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q192">
         <v>2</v>
       </c>
       <c r="R192" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -11884,16 +11884,16 @@
         <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P193" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q193">
         <v>5</v>
       </c>
       <c r="R193" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -11940,13 +11940,13 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q194">
         <v>5</v>
       </c>
       <c r="R194" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -11993,16 +11993,16 @@
         <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P195" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q195">
         <v>4</v>
       </c>
       <c r="R195" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -12049,16 +12049,16 @@
         <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P196" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q196">
         <v>2</v>
       </c>
       <c r="R196" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -12105,16 +12105,16 @@
         <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P197" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q197">
         <v>2</v>
       </c>
       <c r="R197" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
